--- a/examples/results.xlsx
+++ b/examples/results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Computer FQDN</t>
   </si>
@@ -34,10 +34,10 @@
     <t>Is hidden</t>
   </si>
   <si>
-    <t>DC2016.COERCE.local</t>
-  </si>
-  <si>
-    <t>192.168.1.46</t>
+    <t>TDC01.DOMAIN.local</t>
+  </si>
+  <si>
+    <t>192.168.1.71</t>
   </si>
   <si>
     <t>ADMIN$</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>SYSVOL</t>
+  </si>
+  <si>
+    <t>Users</t>
   </si>
 </sst>
 </file>
@@ -405,16 +408,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,8 +523,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E7"/>
+  <autoFilter ref="A1:E8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>